--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.2855002948574583</v>
+        <v>6.2855002912352225</v>
       </c>
       <c r="C2">
-        <v>5.3373405252990977</v>
+        <v>5.3373405289363989</v>
       </c>
       <c r="D2">
-        <v>5.464114645598011</v>
+        <v>5.464114654867422</v>
       </c>
       <c r="E2">
-        <v>3.9968449048897763</v>
+        <v>3.9968449088680988</v>
       </c>
       <c r="F2">
-        <v>4.3081338286333848</v>
+        <v>4.3081338315438327</v>
       </c>
       <c r="G2">
-        <v>7.0472771595295196</v>
+        <v>7.0472771613850584</v>
       </c>
       <c r="H2">
-        <v>3.1783298810677345</v>
+        <v>3.1783298848432611</v>
       </c>
       <c r="I2">
-        <v>4.4962038160385234</v>
+        <v>4.49620381627697</v>
       </c>
       <c r="J2">
-        <v>5.5357491756899773</v>
+        <v>5.5357491845450788</v>
       </c>
       <c r="K2">
-        <v>6.1897834901807824</v>
+        <v>6.1897834918907391</v>
       </c>
       <c r="L2">
-        <v>8.3492976527079357</v>
+        <v>8.3492976563409087</v>
       </c>
       <c r="M2">
-        <v>6.4455350827264528</v>
+        <v>6.4455350819892674</v>
       </c>
       <c r="N2">
-        <v>4.937799240982379</v>
+        <v>4.9377992430234556</v>
       </c>
       <c r="O2">
-        <v>3.0791298639478137</v>
+        <v>3.0791298711084982</v>
       </c>
       <c r="P2">
-        <v>3.9469197871813457</v>
+        <v>3.9469197845363948</v>
       </c>
       <c r="Q2">
-        <v>7.9865789863650951</v>
+        <v>7.9865789899847233</v>
       </c>
       <c r="R2">
-        <v>5.0551662399321931</v>
+        <v>5.0551662443276495</v>
       </c>
       <c r="S2">
-        <v>2.9224315735144097</v>
+        <v>2.9224315727660395</v>
       </c>
       <c r="T2">
-        <v>2.1996000604570694</v>
+        <v>2.1996000580008102</v>
       </c>
       <c r="U2">
-        <v>6.0633715557071666</v>
+        <v>6.063371560883148</v>
       </c>
       <c r="V2">
-        <v>4.5164846146478643</v>
+        <v>4.516484618495241</v>
       </c>
       <c r="W2">
-        <v>6.4845288768565421</v>
+        <v>6.4845288857849654</v>
       </c>
       <c r="X2">
-        <v>6.5906002069292855</v>
+        <v>6.5906002120573071</v>
       </c>
       <c r="Y2">
-        <v>1.4380581514386002</v>
+        <v>1.4380581571423785</v>
       </c>
       <c r="Z2">
-        <v>3.8249269530871697</v>
+        <v>3.8249269568627868</v>
       </c>
       <c r="AA2">
-        <v>4.3319058633415315</v>
+        <v>4.3319058946790108</v>
       </c>
       <c r="AB2">
-        <v>4.6006527041769241</v>
+        <v>4.6006527155305514</v>
       </c>
       <c r="AC2">
-        <v>7.4082973777667229</v>
+        <v>7.4082973875634561</v>
       </c>
       <c r="AD2">
-        <v>2.3381389386911704</v>
+        <v>2.3381389519734141</v>
       </c>
       <c r="AE2">
-        <v>5.9821131755403112</v>
+        <v>5.9821131768858153</v>
       </c>
       <c r="AF2">
-        <v>4.1645768934722653</v>
+        <v>4.1645769000330146</v>
       </c>
       <c r="AG2">
-        <v>3.8521289585430094</v>
+        <v>3.8521289737723134</v>
       </c>
       <c r="AH2">
-        <v>2.9535428104465544</v>
+        <v>2.9535428162465838</v>
       </c>
       <c r="AI2">
-        <v>5.1479039102829462</v>
+        <v>5.147903922668859</v>
       </c>
       <c r="AJ2">
-        <v>4.6329493121932481</v>
+        <v>4.6329493200065635</v>
       </c>
       <c r="AK2">
-        <v>5.4522561090349697</v>
+        <v>5.452256113570531</v>
       </c>
       <c r="AL2">
-        <v>7.3333101146135977</v>
+        <v>7.3333101219820911</v>
       </c>
       <c r="AM2">
-        <v>3.2017061553306805</v>
+        <v>3.2017061611593038</v>
       </c>
       <c r="AN2">
-        <v>4.0161151289129888</v>
+        <v>4.0161151345978769</v>
       </c>
       <c r="AO2">
-        <v>2.5479379025913387</v>
+        <v>2.5479379158087543</v>
       </c>
       <c r="AP2">
-        <v>2.8417936603451031</v>
+        <v>2.8417936661126606</v>
       </c>
       <c r="AQ2">
-        <v>5.6309522681268964</v>
+        <v>5.6309522796589961</v>
       </c>
       <c r="AR2">
-        <v>2.6279629152361199</v>
+        <v>2.6279629165410925</v>
       </c>
       <c r="AS2">
-        <v>3.0626233475056583</v>
+        <v>3.062623363742762</v>
       </c>
       <c r="AT2">
-        <v>4.2289024255082968</v>
+        <v>4.2289024320320001</v>
       </c>
       <c r="AU2">
-        <v>2.7617681832838201</v>
+        <v>2.7617681842880955</v>
       </c>
       <c r="AV2">
-        <v>3.6296006416729516</v>
+        <v>3.6296006639857152</v>
       </c>
       <c r="AW2">
-        <v>5.0822384611006672</v>
+        <v>5.0822384651588894</v>
       </c>
       <c r="AX2">
-        <v>3.6657587129987403</v>
+        <v>3.6657587225769896</v>
       </c>
       <c r="AY2">
-        <v>1.7508972379697336</v>
+        <v>1.750897244990282</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.0036765871081483</v>
+        <v>6.0036765914449317</v>
       </c>
       <c r="C3">
-        <v>5.8830640210740359</v>
+        <v>5.8830640241862691</v>
       </c>
       <c r="D3">
-        <v>3.1597739550407984</v>
+        <v>3.1597739612846398</v>
       </c>
       <c r="E3">
-        <v>3.3404596259007908</v>
+        <v>3.3404596258388297</v>
       </c>
       <c r="F3">
-        <v>4.5812526278024484</v>
+        <v>4.5812526340245068</v>
       </c>
       <c r="G3">
-        <v>4.0240943165952823</v>
+        <v>4.024094320335533</v>
       </c>
       <c r="H3">
-        <v>6.5673706137826233</v>
+        <v>6.567370616799062</v>
       </c>
       <c r="I3">
-        <v>4.9385526305307472</v>
+        <v>4.938552632646152</v>
       </c>
       <c r="J3">
-        <v>4.3737591421682493</v>
+        <v>4.3737591517023624</v>
       </c>
       <c r="K3">
-        <v>-1.0050176617192026</v>
+        <v>-1.0050176570157834</v>
       </c>
       <c r="L3">
-        <v>4.0620109157097319</v>
+        <v>4.0620109216701099</v>
       </c>
       <c r="M3">
-        <v>6.28982464680211</v>
+        <v>6.2898253591688835</v>
       </c>
       <c r="N3">
-        <v>4.3431839479415677</v>
+        <v>4.3431839514537645</v>
       </c>
       <c r="O3">
-        <v>6.6257641906322826</v>
+        <v>6.6257641940222642</v>
       </c>
       <c r="P3">
-        <v>3.6522208097250277</v>
+        <v>3.6522208161517979</v>
       </c>
       <c r="Q3">
-        <v>3.8071710366202889</v>
+        <v>3.807171040560839</v>
       </c>
       <c r="R3">
-        <v>6.4263281452070604</v>
+        <v>6.4263281534632748</v>
       </c>
       <c r="S3">
-        <v>2.5889946691607815</v>
+        <v>2.5889946697322017</v>
       </c>
       <c r="T3">
-        <v>3.1537830768339528</v>
+        <v>3.153783080576658</v>
       </c>
       <c r="U3">
-        <v>3.779697541593583</v>
+        <v>3.7796975439064089</v>
       </c>
       <c r="V3">
-        <v>2.8465880292547396</v>
+        <v>2.846588031641474</v>
       </c>
       <c r="W3">
-        <v>4.6035745206671228</v>
+        <v>4.6035745281681288</v>
       </c>
       <c r="X3">
-        <v>6.6573216770685892</v>
+        <v>6.6573216811396803</v>
       </c>
       <c r="Y3">
-        <v>0.8228989499049304</v>
+        <v>0.82289895772009669</v>
       </c>
       <c r="Z3">
-        <v>2.1095692482331074</v>
+        <v>2.1095692517478173</v>
       </c>
       <c r="AA3">
-        <v>4.1885468076019032</v>
+        <v>4.1885468028256625</v>
       </c>
       <c r="AB3">
-        <v>4.1414051495574666</v>
+        <v>4.141405157399868</v>
       </c>
       <c r="AC3">
-        <v>5.5003949613880696</v>
+        <v>5.5003949621665305</v>
       </c>
       <c r="AD3">
-        <v>4.0641610968520139</v>
+        <v>4.0641611103891249</v>
       </c>
       <c r="AE3">
-        <v>4.0078251250488126</v>
+        <v>4.0078251292061777</v>
       </c>
       <c r="AF3">
-        <v>5.4312260674349684</v>
+        <v>5.4312260743531624</v>
       </c>
       <c r="AG3">
-        <v>5.1605678744543981</v>
+        <v>5.1605678752186135</v>
       </c>
       <c r="AH3">
-        <v>5.4283099727953754</v>
+        <v>5.4283099846577922</v>
       </c>
       <c r="AI3">
-        <v>0.72259648104165131</v>
+        <v>0.72259649470221143</v>
       </c>
       <c r="AJ3">
-        <v>4.1194401016139857</v>
+        <v>4.1194401078393899</v>
       </c>
       <c r="AK3">
-        <v>6.2474900994321878</v>
+        <v>6.2474901035069577</v>
       </c>
       <c r="AL3">
-        <v>4.3468063469062326</v>
+        <v>4.3468063516971487</v>
       </c>
       <c r="AM3">
-        <v>3.1758378470999098</v>
+        <v>3.1758378627691446</v>
       </c>
       <c r="AN3">
-        <v>8.3321554951295624</v>
+        <v>8.3321555045284903</v>
       </c>
       <c r="AO3">
-        <v>3.5839405631097985</v>
+        <v>3.5839405699780156</v>
       </c>
       <c r="AP3">
-        <v>4.4056002655889719</v>
+        <v>4.4056002741715155</v>
       </c>
       <c r="AQ3">
-        <v>3.524566978060486</v>
+        <v>3.5245669840983465</v>
       </c>
       <c r="AR3">
-        <v>2.3590157675073784</v>
+        <v>2.3590157689342379</v>
       </c>
       <c r="AS3">
-        <v>5.0756168563501864</v>
+        <v>5.0756168702839517</v>
       </c>
       <c r="AT3">
-        <v>2.4931409500924535</v>
+        <v>2.4931409637900646</v>
       </c>
       <c r="AU3">
-        <v>4.9970654233058864</v>
+        <v>4.9970654312742848</v>
       </c>
       <c r="AV3">
-        <v>4.5907475049917155</v>
+        <v>4.5907475246152467</v>
       </c>
       <c r="AW3">
-        <v>6.2707457201096357</v>
+        <v>6.2707457358839438</v>
       </c>
       <c r="AX3">
-        <v>5.9263361063260795</v>
+        <v>5.9263361183767582</v>
       </c>
       <c r="AY3">
-        <v>1.0241640477881497</v>
+        <v>1.0241640501476474</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>6.2855002912352225</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5.3373405289363989</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.464114654867422</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3.9968449088680988</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4.3081338315438327</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7.0472771613850584</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.1783298848432611</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.49620381627697</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.5357491845450788</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>6.1897834918907391</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.3492976563409087</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>6.4455350819892674</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.9377992430234556</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3.0791298711084982</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.9469197845363948</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>7.9865789899847233</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5.0551662443276495</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>2.9224315727660395</v>
+        <v>4.4805613044438823</v>
       </c>
       <c r="T2">
         <v>2.1996000580008102</v>
@@ -588,55 +477,55 @@
         <v>3.8249269568627868</v>
       </c>
       <c r="AA2">
-        <v>4.3319058946790108</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>4.6006527155305514</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>7.4082973875634561</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>2.3381389519734141</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>5.9821131768858153</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.1645769000330146</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>3.8521289737723134</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.9535428162465838</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>5.147903922668859</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>4.6329493200065635</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>5.452256113570531</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>7.3333101219820911</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>3.2017061611593038</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>4.0161151345978769</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>2.5479379158087543</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.8417936661126606</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>5.6309522796589961</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>2.6279629165410925</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>6.0036765914449317</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.8830640241862691</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.1597739612846398</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.3404596258388297</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.5812526340245068</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4.024094320335533</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>6.567370616799062</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.938552632646152</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.3737591517023624</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-1.0050176570157834</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>4.0620109216701099</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>6.2898253591688835</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4.3431839514537645</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>6.6257641940222642</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.6522208161517979</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>3.807171040560839</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>6.4263281534632748</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>2.5889946697322017</v>
@@ -743,55 +629,55 @@
         <v>2.1095692517478173</v>
       </c>
       <c r="AA3">
-        <v>4.1885468028256625</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>4.141405157399868</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>5.5003949621665305</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>4.0641611103891249</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>4.0078251292061777</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>5.4312260743531624</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>5.1605678752186135</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>5.4283099846577922</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.72259649470221143</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>4.1194401078393899</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>6.2474901035069577</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>4.3468063516971487</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.1758378627691446</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>8.3321555045284903</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>3.5839405699780156</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>4.4056002741715155</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3.5245669840983465</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>2.3590157689342379</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>6.2855002948574583</v>
-      </c>
       <c r="C2">
-        <v>5.8946349638929085</v>
-      </c>
-      <c r="D2">
-        <v>5.464114645598011</v>
-      </c>
-      <c r="E2">
-        <v>3.9968449048897763</v>
+        <v>5.0551662443276495</v>
       </c>
       <c r="F2">
         <v>4.3081338286333848</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.0036765871081483</v>
+        <v>5.3564084336275419</v>
       </c>
       <c r="C3">
-        <v>5.8830640210740359</v>
+        <v>6.4263281534632748</v>
       </c>
       <c r="D3">
-        <v>3.1597739550407984</v>
+        <v>8.0558901479131446</v>
       </c>
       <c r="E3">
-        <v>3.3404596259007908</v>
+        <v>3.3256809647001098</v>
       </c>
       <c r="F3">
         <v>4.5812526278024484</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.2855002948574583</v>
-      </c>
-      <c r="C2">
-        <v>5.8946349638929085</v>
+        <v>5.1162812721297382</v>
       </c>
       <c r="D2">
-        <v>5.464114645598011</v>
-      </c>
-      <c r="E2">
-        <v>3.9968449048897763</v>
+        <v>3.2017061611593038</v>
       </c>
       <c r="F2">
         <v>4.3081338286333848</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.0036765871081483</v>
+        <v>4.3431839514537645</v>
       </c>
       <c r="C3">
-        <v>5.8830640210740359</v>
+        <v>5.3564084336275419</v>
       </c>
       <c r="D3">
-        <v>3.1597739550407984</v>
+        <v>3.1758378627691446</v>
       </c>
       <c r="E3">
-        <v>2.0355349072249753</v>
+        <v>8.0558901479131446</v>
       </c>
       <c r="F3">
         <v>4.5812526278024484</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_SEE_Fuku_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>6.2855002912352225</v>
+      </c>
+      <c r="C2">
+        <v>5.8946349672805898</v>
+      </c>
+      <c r="D2">
+        <v>5.464114654867422</v>
+      </c>
+      <c r="E2">
+        <v>3.9968449088680988</v>
+      </c>
+      <c r="F2">
+        <v>4.3081338315438327</v>
+      </c>
+      <c r="G2">
+        <v>6.2127172896496115</v>
+      </c>
+      <c r="H2">
+        <v>3.1783298848432611</v>
+      </c>
+      <c r="I2">
+        <v>3.7031370569712188</v>
+      </c>
+      <c r="J2">
+        <v>5.5357491845450788</v>
+      </c>
+      <c r="K2">
+        <v>6.1897834918907391</v>
+      </c>
+      <c r="L2">
+        <v>8.1162827172444505</v>
+      </c>
+      <c r="M2">
+        <v>5.0928521602116792</v>
+      </c>
+      <c r="N2">
         <v>5.1162812721297382</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>3.6371836208623143</v>
+      </c>
+      <c r="Q2">
+        <v>7.9865789899847233</v>
+      </c>
+      <c r="R2">
+        <v>5.0551662443276495</v>
+      </c>
+      <c r="T2">
+        <v>2.8231593329113043</v>
+      </c>
+      <c r="U2">
+        <v>6.063371560883148</v>
+      </c>
+      <c r="V2">
+        <v>3.9318080463041136</v>
+      </c>
+      <c r="W2">
+        <v>6.4845288857849654</v>
+      </c>
+      <c r="X2">
+        <v>6.5906002120573071</v>
+      </c>
+      <c r="Y2">
+        <v>1.4380581571423785</v>
+      </c>
+      <c r="Z2">
+        <v>3.8249269568627868</v>
+      </c>
+      <c r="AA2">
+        <v>4.3319058946790108</v>
+      </c>
+      <c r="AB2">
+        <v>4.6006527155305514</v>
+      </c>
+      <c r="AC2">
+        <v>7.4082973875634561</v>
+      </c>
+      <c r="AD2">
+        <v>2.3381389519734141</v>
+      </c>
+      <c r="AE2">
+        <v>5.9821131768858153</v>
+      </c>
+      <c r="AF2">
+        <v>4.1645769000330146</v>
+      </c>
+      <c r="AG2">
+        <v>3.8521289737723134</v>
+      </c>
+      <c r="AH2">
+        <v>2.9535428162465838</v>
+      </c>
+      <c r="AI2">
+        <v>5.147903922668859</v>
+      </c>
+      <c r="AJ2">
+        <v>4.6329493200065635</v>
+      </c>
+      <c r="AK2">
+        <v>5.452256113570531</v>
+      </c>
+      <c r="AL2">
+        <v>7.3333101219820911</v>
+      </c>
+      <c r="AM2">
         <v>3.2017061611593038</v>
       </c>
-      <c r="F2">
-        <v>4.3081338286333848</v>
-      </c>
-      <c r="G2">
-        <v>6.2127172894661857</v>
-      </c>
-      <c r="H2">
-        <v>3.1783298810677345</v>
-      </c>
-      <c r="I2">
-        <v>3.7031370592262589</v>
-      </c>
-      <c r="J2">
-        <v>5.5357491756899773</v>
-      </c>
-      <c r="K2">
-        <v>6.1897834901807824</v>
-      </c>
-      <c r="L2">
-        <v>8.1162827110086209</v>
-      </c>
-      <c r="M2">
-        <v>5.092852161812746</v>
-      </c>
-      <c r="N2">
-        <v>5.1162812682084446</v>
-      </c>
-      <c r="P2">
-        <v>3.6371836215880213</v>
-      </c>
-      <c r="Q2">
-        <v>7.9865789863650951</v>
-      </c>
-      <c r="R2">
-        <v>5.0551662399321931</v>
-      </c>
-      <c r="T2">
-        <v>2.8231593341901089</v>
-      </c>
-      <c r="U2">
-        <v>6.0633715557071666</v>
-      </c>
-      <c r="V2">
-        <v>3.9318080402592694</v>
-      </c>
-      <c r="W2">
-        <v>6.4845288768565421</v>
-      </c>
-      <c r="X2">
-        <v>6.5906002069292855</v>
-      </c>
-      <c r="Y2">
-        <v>1.4380581514386002</v>
-      </c>
-      <c r="Z2">
-        <v>3.8249269530871697</v>
-      </c>
-      <c r="AA2">
-        <v>4.3319058633415315</v>
-      </c>
-      <c r="AB2">
-        <v>4.6006527041769241</v>
-      </c>
-      <c r="AC2">
-        <v>7.4082973777667229</v>
-      </c>
-      <c r="AD2">
-        <v>2.3381389386911704</v>
-      </c>
-      <c r="AE2">
-        <v>5.9821131755403112</v>
-      </c>
-      <c r="AF2">
-        <v>4.1645768934722653</v>
-      </c>
-      <c r="AG2">
-        <v>3.8521289585430094</v>
-      </c>
-      <c r="AH2">
-        <v>2.9535428104465544</v>
-      </c>
-      <c r="AI2">
-        <v>5.1479039102829462</v>
-      </c>
-      <c r="AJ2">
-        <v>4.6329493121932481</v>
-      </c>
-      <c r="AK2">
-        <v>5.4522561090349697</v>
-      </c>
-      <c r="AL2">
-        <v>7.3333101146135977</v>
-      </c>
-      <c r="AM2">
-        <v>3.2017061553306805</v>
-      </c>
       <c r="AO2">
-        <v>2.5479379025913387</v>
+        <v>2.5479379158087543</v>
       </c>
       <c r="AP2">
-        <v>2.4402894824085042</v>
+        <v>2.4402894871501366</v>
       </c>
       <c r="AR2">
-        <v>2.6279629152361199</v>
+        <v>2.6279629165410925</v>
       </c>
       <c r="AS2">
-        <v>3.0626233475056583</v>
+        <v>3.062623363742762</v>
       </c>
       <c r="AT2">
-        <v>4.2289024255082968</v>
+        <v>4.2289024320320001</v>
       </c>
       <c r="AU2">
-        <v>3.892239024843974</v>
+        <v>3.8922390230781256</v>
       </c>
       <c r="AV2">
-        <v>3.6296006416729516</v>
+        <v>3.6296006639857152</v>
       </c>
       <c r="AW2">
-        <v>5.0822384611006672</v>
+        <v>5.0822384651588894</v>
       </c>
       <c r="AX2">
-        <v>3.6657587129987403</v>
+        <v>3.6657587225769896</v>
       </c>
       <c r="AY2">
-        <v>1.7508972379697336</v>
+        <v>1.750897244990282</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>6.0036765914449317</v>
+      </c>
+      <c r="C3">
+        <v>5.8830640241862691</v>
+      </c>
+      <c r="D3">
+        <v>3.1597739612846398</v>
+      </c>
+      <c r="E3">
+        <v>2.0355349071023254</v>
+      </c>
+      <c r="F3">
+        <v>4.5812526340245068</v>
+      </c>
+      <c r="G3">
+        <v>4.024094320335533</v>
+      </c>
+      <c r="H3">
+        <v>6.567370616799062</v>
+      </c>
+      <c r="I3">
+        <v>4.938552632646152</v>
+      </c>
+      <c r="J3">
+        <v>4.3737591517023624</v>
+      </c>
+      <c r="K3">
+        <v>-0.27389095819716325</v>
+      </c>
+      <c r="L3">
+        <v>4.0620109216701099</v>
+      </c>
+      <c r="M3">
+        <v>7.1267800707221882</v>
+      </c>
+      <c r="N3">
         <v>4.3431839514537645</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>5.3564084336275419</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>3.6522208161517979</v>
+      </c>
+      <c r="Q3">
+        <v>3.807171040560839</v>
+      </c>
+      <c r="R3">
+        <v>6.4263281534632748</v>
+      </c>
+      <c r="S3">
+        <v>2.5889946697322017</v>
+      </c>
+      <c r="T3">
+        <v>3.153783080576658</v>
+      </c>
+      <c r="U3">
+        <v>3.7796975439064089</v>
+      </c>
+      <c r="V3">
+        <v>2.51032162008786</v>
+      </c>
+      <c r="W3">
+        <v>4.6035745281681288</v>
+      </c>
+      <c r="X3">
+        <v>6.6573216811396803</v>
+      </c>
+      <c r="Y3">
+        <v>0.82289895772009669</v>
+      </c>
+      <c r="Z3">
+        <v>2.1095692517478173</v>
+      </c>
+      <c r="AA3">
+        <v>4.1885468028256625</v>
+      </c>
+      <c r="AB3">
+        <v>4.141405157399868</v>
+      </c>
+      <c r="AC3">
+        <v>5.5003949621665305</v>
+      </c>
+      <c r="AD3">
+        <v>4.0641611103891249</v>
+      </c>
+      <c r="AE3">
+        <v>4.0078251292061777</v>
+      </c>
+      <c r="AF3">
+        <v>5.4312260743531624</v>
+      </c>
+      <c r="AG3">
+        <v>5.1605678752186135</v>
+      </c>
+      <c r="AH3">
+        <v>5.4283099846577922</v>
+      </c>
+      <c r="AI3">
+        <v>5.6433534036948716</v>
+      </c>
+      <c r="AJ3">
+        <v>4.1194401078393899</v>
+      </c>
+      <c r="AK3">
+        <v>6.2474901035069577</v>
+      </c>
+      <c r="AL3">
+        <v>4.3468063516971487</v>
+      </c>
+      <c r="AM3">
         <v>3.1758378627691446</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>8.0558901479131446</v>
       </c>
-      <c r="F3">
-        <v>4.5812526278024484</v>
-      </c>
-      <c r="G3">
-        <v>4.0240943165952823</v>
-      </c>
-      <c r="H3">
-        <v>6.5673706137826233</v>
-      </c>
-      <c r="I3">
-        <v>4.9385526305307472</v>
-      </c>
-      <c r="J3">
-        <v>4.3737591421682493</v>
-      </c>
-      <c r="K3">
-        <v>-0.27389096433494703</v>
-      </c>
-      <c r="L3">
-        <v>4.0620109157097319</v>
-      </c>
-      <c r="M3">
-        <v>7.1267735274577113</v>
-      </c>
-      <c r="N3">
-        <v>4.3431839479415677</v>
-      </c>
-      <c r="O3">
-        <v>5.3564084274646779</v>
-      </c>
-      <c r="P3">
-        <v>3.6522208097250277</v>
-      </c>
-      <c r="Q3">
-        <v>3.8071710366202889</v>
-      </c>
-      <c r="R3">
-        <v>6.4263281452070604</v>
-      </c>
-      <c r="S3">
-        <v>2.5889946691607815</v>
-      </c>
-      <c r="T3">
-        <v>3.1537830768339528</v>
-      </c>
-      <c r="U3">
-        <v>3.779697541593583</v>
-      </c>
-      <c r="V3">
-        <v>2.510321618839773</v>
-      </c>
-      <c r="W3">
-        <v>4.6035745206671228</v>
-      </c>
-      <c r="X3">
-        <v>6.6573216770685892</v>
-      </c>
-      <c r="Y3">
-        <v>0.8228989499049304</v>
-      </c>
-      <c r="Z3">
-        <v>2.1095692482331074</v>
-      </c>
-      <c r="AA3">
-        <v>4.1885468076019032</v>
-      </c>
-      <c r="AB3">
-        <v>4.1414051495574666</v>
-      </c>
-      <c r="AC3">
-        <v>5.5003949613880696</v>
-      </c>
-      <c r="AD3">
-        <v>4.0641610968520139</v>
-      </c>
-      <c r="AE3">
-        <v>4.0078251250488126</v>
-      </c>
-      <c r="AF3">
-        <v>5.4312260674349684</v>
-      </c>
-      <c r="AG3">
-        <v>5.1605678744543981</v>
-      </c>
-      <c r="AH3">
-        <v>5.4283099727953754</v>
-      </c>
-      <c r="AI3">
-        <v>5.6433533880375037</v>
-      </c>
-      <c r="AJ3">
-        <v>4.1194401016139857</v>
-      </c>
-      <c r="AK3">
-        <v>6.2474900994321878</v>
-      </c>
-      <c r="AL3">
-        <v>4.3468063469062326</v>
-      </c>
-      <c r="AM3">
-        <v>3.1758378470999098</v>
-      </c>
-      <c r="AN3">
-        <v>8.0558901365352416</v>
-      </c>
       <c r="AO3">
-        <v>3.5839405631097985</v>
+        <v>3.5839405699780156</v>
       </c>
       <c r="AP3">
-        <v>4.4056002655889719</v>
+        <v>4.4056002741715155</v>
       </c>
       <c r="AQ3">
-        <v>3.3256809630752997</v>
+        <v>3.3256809647001098</v>
       </c>
       <c r="AR3">
-        <v>2.3590157675073784</v>
+        <v>2.3590157689342379</v>
       </c>
       <c r="AS3">
-        <v>5.0756168563501864</v>
+        <v>5.0756168702839517</v>
       </c>
       <c r="AT3">
-        <v>2.4931409500924535</v>
+        <v>2.4931409637900646</v>
       </c>
       <c r="AU3">
-        <v>4.7134324137699197</v>
+        <v>4.7134324161961967</v>
       </c>
       <c r="AV3">
-        <v>4.5907475049917155</v>
+        <v>4.5907475246152467</v>
       </c>
       <c r="AW3">
-        <v>6.2707457201096357</v>
+        <v>6.2707457358839438</v>
       </c>
       <c r="AX3">
-        <v>5.9263361063260795</v>
+        <v>5.9263361183767582</v>
       </c>
       <c r="AY3">
-        <v>1.0241640477881497</v>
+        <v>1.0241640501476474</v>
       </c>
     </row>
   </sheetData>
